--- a/Simulation Results2.xlsx
+++ b/Simulation Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="60" windowWidth="12760" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>Venetian Blind System</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Geneva</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>KwH</t>
+  </si>
+  <si>
+    <t>kgCO2 over 20yr</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,6 +443,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -481,7 +494,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -518,6 +531,8 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -555,6 +570,8 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -892,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2060,7 +2077,7 @@
         <v>420.62746351700548</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2073,8 +2090,14 @@
       <c r="D65">
         <v>107.964882204067</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -2087,13 +2110,24 @@
       <c r="D66" s="2">
         <v>713.7470599410517</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66">
+        <f>B66-D66</f>
+        <v>1658.24695566839</v>
+      </c>
+      <c r="H66">
+        <f>G66*0.4489*20</f>
+        <v>14887.741167990805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2141,7 @@
         <v>369.54191716892848</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2121,7 +2155,7 @@
         <v>188.50041448898779</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -2134,8 +2168,14 @@
       <c r="D71">
         <v>131.3938665503843</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -2147,6 +2187,17 @@
       </c>
       <c r="D72" s="2">
         <v>689.43619820830054</v>
+      </c>
+      <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72">
+        <f>B72-D72</f>
+        <v>929.35036385567628</v>
+      </c>
+      <c r="H72">
+        <f>G72*0.6109*20</f>
+        <v>11354.802745588651</v>
       </c>
     </row>
   </sheetData>
@@ -2163,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B17:H44"/>
+  <dimension ref="B17:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2200,19 +2251,19 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="D18">
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="E18">
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="F18">
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="G18">
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -2377,23 +2428,23 @@
       </c>
       <c r="C25" s="2">
         <f>C23*C18</f>
-        <v>670.83333333333314</v>
+        <v>930.5555555555552</v>
       </c>
       <c r="D25" s="2">
         <f>D18*D24*D23</f>
-        <v>469.58333333333314</v>
+        <v>651.38888888888857</v>
       </c>
       <c r="E25" s="2">
         <f>E18*E24*E23</f>
-        <v>412.76374999999979</v>
+        <v>572.5708333333331</v>
       </c>
       <c r="F25" s="2">
         <f>F18*F24*F23</f>
-        <v>412.76374999999979</v>
+        <v>572.5708333333331</v>
       </c>
       <c r="G25" s="2">
         <f>G18*G24*G23</f>
-        <v>412.76374999999979</v>
+        <v>572.5708333333331</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>41</v>
@@ -2425,23 +2476,23 @@
       </c>
       <c r="C27">
         <f>C26*C25</f>
-        <v>73.791666666666643</v>
+        <v>102.36111111111107</v>
       </c>
       <c r="D27">
         <f>D26*D25</f>
-        <v>51.654166666666647</v>
+        <v>71.652777777777743</v>
       </c>
       <c r="E27">
         <f>E26*E25</f>
-        <v>45.404012499999979</v>
+        <v>62.982791666666643</v>
       </c>
       <c r="F27">
         <f>F26*F25</f>
-        <v>41.27637499999998</v>
+        <v>57.257083333333313</v>
       </c>
       <c r="G27">
         <f>G26*G25</f>
-        <v>57.786924999999975</v>
+        <v>80.159916666666646</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -2516,29 +2567,29 @@
       </c>
       <c r="C31" s="2">
         <f>C27*C28*C29*C30</f>
-        <v>518.19459999999981</v>
+        <v>718.82066666666628</v>
       </c>
       <c r="D31" s="2">
         <f>D27*D28*D29*D30</f>
-        <v>471.08599999999979</v>
+        <v>653.4733333333329</v>
       </c>
       <c r="E31" s="2">
         <f>E27*E28*E29*E30</f>
-        <v>690.14098999999965</v>
+        <v>957.33843333333289</v>
       </c>
       <c r="F31" s="2">
         <f>F27*F28*F29*F30</f>
-        <v>627.40089999999964</v>
+        <v>870.30766666666636</v>
       </c>
       <c r="G31" s="2">
         <f>G27*G28*G29*G30</f>
-        <v>878.36125999999956</v>
+        <v>1218.4307333333329</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:11">
       <c r="C36" t="s">
         <v>74</v>
       </c>
@@ -2554,33 +2605,45 @@
       <c r="G36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="J36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="6">
         <f>C18</f>
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" ref="D37:G37" si="0">D18</f>
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>1340</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>1340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2604,8 +2667,14 @@
         <f t="shared" si="1"/>
         <v>0.6944444444444442</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -2630,32 +2699,32 @@
         <v>0.38470000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:11">
       <c r="B40" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="6">
         <f>C25</f>
-        <v>670.83333333333314</v>
+        <v>930.5555555555552</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" ref="D40:G40" si="3">D25</f>
-        <v>469.58333333333314</v>
+        <v>651.38888888888857</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
+        <v>572.5708333333331</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
+        <v>572.5708333333331</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>572.5708333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -2680,7 +2749,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:11">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -2705,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:11">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -2730,29 +2799,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:11">
       <c r="B44" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="6">
         <f t="shared" ref="C44:G44" si="7">C31</f>
-        <v>518.19459999999981</v>
+        <v>718.82066666666628</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="7"/>
-        <v>471.08599999999979</v>
+        <v>653.4733333333329</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="7"/>
-        <v>690.14098999999965</v>
+        <v>957.33843333333289</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="7"/>
-        <v>627.40089999999964</v>
+        <v>870.30766666666636</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="7"/>
-        <v>878.36125999999956</v>
+        <v>1218.4307333333329</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Simulation Results2.xlsx
+++ b/Simulation Results2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="30780" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HVAC" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity generation" sheetId="2" r:id="rId2"/>
     <sheet name="Old" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -910,7 +910,7 @@
   <dimension ref="A2:N72"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2217,7 +2217,7 @@
   <dimension ref="B17:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Simulation Results2.xlsx
+++ b/Simulation Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,6 +443,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,7 +498,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -533,6 +537,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -572,6 +578,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -2217,7 +2225,7 @@
   <dimension ref="B17:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2251,19 +2259,19 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="D18">
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="E18">
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="F18">
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="G18">
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -2428,23 +2436,23 @@
       </c>
       <c r="C25" s="2">
         <f>C23*C18</f>
-        <v>930.5555555555552</v>
+        <v>593.74999999999977</v>
       </c>
       <c r="D25" s="2">
         <f>D18*D24*D23</f>
-        <v>651.38888888888857</v>
+        <v>415.62499999999983</v>
       </c>
       <c r="E25" s="2">
         <f>E18*E24*E23</f>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="F25" s="2">
         <f>F18*F24*F23</f>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="G25" s="2">
         <f>G18*G24*G23</f>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>41</v>
@@ -2476,23 +2484,23 @@
       </c>
       <c r="C27">
         <f>C26*C25</f>
-        <v>102.36111111111107</v>
+        <v>65.312499999999972</v>
       </c>
       <c r="D27">
         <f>D26*D25</f>
-        <v>71.652777777777743</v>
+        <v>45.718749999999979</v>
       </c>
       <c r="E27">
         <f>E26*E25</f>
-        <v>62.982791666666643</v>
+        <v>40.186781249999981</v>
       </c>
       <c r="F27">
         <f>F26*F25</f>
-        <v>57.257083333333313</v>
+        <v>36.533437499999984</v>
       </c>
       <c r="G27">
         <f>G26*G25</f>
-        <v>80.159916666666646</v>
+        <v>51.146812499999982</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -2567,23 +2575,23 @@
       </c>
       <c r="C31" s="2">
         <f>C27*C28*C29*C30</f>
-        <v>718.82066666666628</v>
+        <v>458.65049999999979</v>
       </c>
       <c r="D31" s="2">
         <f>D27*D28*D29*D30</f>
-        <v>653.4733333333329</v>
+        <v>416.95499999999976</v>
       </c>
       <c r="E31" s="2">
         <f>E27*E28*E29*E30</f>
-        <v>957.33843333333289</v>
+        <v>610.83907499999964</v>
       </c>
       <c r="F31" s="2">
         <f>F27*F28*F29*F30</f>
-        <v>870.30766666666636</v>
+        <v>555.3082499999997</v>
       </c>
       <c r="G31" s="2">
         <f>G27*G28*G29*G30</f>
-        <v>1218.4307333333329</v>
+        <v>777.43154999999967</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>59</v>
@@ -2618,23 +2626,23 @@
       </c>
       <c r="C37" s="6">
         <f>C18</f>
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" ref="D37:G37" si="0">D18</f>
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>855</v>
       </c>
       <c r="J37" t="s">
         <v>77</v>
@@ -2705,23 +2713,23 @@
       </c>
       <c r="C40" s="6">
         <f>C25</f>
-        <v>930.5555555555552</v>
+        <v>593.74999999999977</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" ref="D40:G40" si="3">D25</f>
-        <v>651.38888888888857</v>
+        <v>415.62499999999983</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="3"/>
-        <v>572.5708333333331</v>
+        <v>365.33437499999985</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -2805,23 +2813,23 @@
       </c>
       <c r="C44" s="6">
         <f t="shared" ref="C44:G44" si="7">C31</f>
-        <v>718.82066666666628</v>
+        <v>458.65049999999979</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="7"/>
-        <v>653.4733333333329</v>
+        <v>416.95499999999976</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="7"/>
-        <v>957.33843333333289</v>
+        <v>610.83907499999964</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="7"/>
-        <v>870.30766666666636</v>
+        <v>555.3082499999997</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="7"/>
-        <v>1218.4307333333329</v>
+        <v>777.43154999999967</v>
       </c>
     </row>
   </sheetData>
